--- a/uploads/data.xlsx
+++ b/uploads/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\chatbot-demo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\chatbot-demo\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="47">
   <si>
     <t>Questions</t>
   </si>
@@ -259,6 +259,12 @@
 4.Workforce Management Integration
 5.Built-In AI Routing Two-Way Messaging</t>
     </r>
+  </si>
+  <si>
+    <t>what is afiniti</t>
+  </si>
+  <si>
+    <t>AI related solution provider company</t>
   </si>
 </sst>
 </file>
@@ -808,10 +814,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -972,6 +978,14 @@
         <v>26</v>
       </c>
     </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
